--- a/mbs-perturbation/bloated/MLP/bloated-mlp-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/bloated-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9140271493212671</v>
+        <v>0.9140271493212669</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5965889314305604</v>
+        <v>0.9672815871910895</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.524132730015083</v>
+        <v>0.6964555052790347</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4947552447552448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15</v>
+        <v>0.7398601398601399</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02823529411764706</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0489795918367347</v>
+        <v>0.1364246737244449</v>
       </c>
       <c r="E7" t="n">
-        <v>0.535900811104431</v>
+        <v>0.8635248763303063</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/MLP/bloated-mlp-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/bloated-mlp-results.xlsx
@@ -470,13 +470,13 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1804511278195489</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9140271493212669</v>
+        <v>0.9894278606965174</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9672815871910895</v>
+        <v>0.9970978441127695</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6964555052790347</v>
+        <v>0.8516508367254636</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9633649932157393</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7398601398601399</v>
+        <v>0.8525</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2628205128205128</v>
+        <v>0.4196969696969696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1364246737244449</v>
+        <v>0.2812354312354312</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8635248763303063</v>
+        <v>0.9308083069500979</v>
       </c>
     </row>
   </sheetData>
